--- a/3_output/de_genes_sig.xlsx
+++ b/3_output/de_genes_sig.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="DT vs PBS" sheetId="1" r:id="rId1"/>
     <sheet name="Treg vs PBS" sheetId="2" r:id="rId2"/>
-    <sheet name="DT vs Treg" sheetId="3" r:id="rId3"/>
+    <sheet name="Treg vs DT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -40969,7 +40969,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.731919086629059</v>
+        <v>0.731919086629059</v>
       </c>
       <c r="C2">
         <v>8.612502989629292</v>
@@ -40992,7 +40992,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41003,7 +41003,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.9523217299012803</v>
+        <v>0.9523217299012803</v>
       </c>
       <c r="C3">
         <v>9.570084412931383</v>
@@ -41026,7 +41026,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41037,7 +41037,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1.036564743732114</v>
+        <v>1.036564743732114</v>
       </c>
       <c r="C4">
         <v>6.683154750561805</v>
@@ -41060,7 +41060,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41071,7 +41071,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.7022697343836555</v>
+        <v>-0.7022697343836555</v>
       </c>
       <c r="C5">
         <v>8.847253973495313</v>
@@ -41094,7 +41094,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -41105,7 +41105,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>-1.000056947694645</v>
+        <v>1.000056947694645</v>
       </c>
       <c r="C6">
         <v>9.369471854415654</v>
@@ -41128,7 +41128,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41139,7 +41139,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.6820566419590772</v>
+        <v>0.6820566419590772</v>
       </c>
       <c r="C7">
         <v>10.18013763637686</v>
@@ -41162,7 +41162,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41173,7 +41173,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.9556480396585787</v>
+        <v>0.9556480396585787</v>
       </c>
       <c r="C8">
         <v>7.569645710190374</v>
@@ -41196,7 +41196,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.8393547886164932</v>
+        <v>0.8393547886164932</v>
       </c>
       <c r="C9">
         <v>10.37463809299088</v>
@@ -41230,7 +41230,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41241,7 +41241,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.799835088477435</v>
+        <v>0.799835088477435</v>
       </c>
       <c r="C10">
         <v>8.379043350517124</v>
@@ -41264,7 +41264,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.8089392770188191</v>
+        <v>0.8089392770188191</v>
       </c>
       <c r="C11">
         <v>9.475722244335417</v>
@@ -41298,7 +41298,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41309,7 +41309,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>-1.020191935879913</v>
+        <v>1.020191935879913</v>
       </c>
       <c r="C12">
         <v>6.857964771186098</v>
@@ -41332,7 +41332,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41343,7 +41343,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.9623862038297482</v>
+        <v>0.9623862038297482</v>
       </c>
       <c r="C13">
         <v>6.592793199223673</v>
@@ -41366,7 +41366,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41377,7 +41377,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>-1.134826061496407</v>
+        <v>1.134826061496407</v>
       </c>
       <c r="C14">
         <v>7.103657978831075</v>
@@ -41400,7 +41400,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41411,7 +41411,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.297537543101032</v>
+        <v>-1.297537543101032</v>
       </c>
       <c r="C15">
         <v>4.393087259467459</v>
@@ -41434,7 +41434,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>-0.7078333261790455</v>
+        <v>0.7078333261790455</v>
       </c>
       <c r="C16">
         <v>6.697727396701499</v>
@@ -41468,7 +41468,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41479,7 +41479,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.6035799916769689</v>
+        <v>-0.6035799916769689</v>
       </c>
       <c r="C17">
         <v>7.423316513590062</v>
@@ -41502,7 +41502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -41513,7 +41513,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>1.201744893561009</v>
+        <v>-1.201744893561009</v>
       </c>
       <c r="C18">
         <v>4.856669462473792</v>
@@ -41536,7 +41536,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -41547,7 +41547,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>-0.8994860321935887</v>
+        <v>0.8994860321935887</v>
       </c>
       <c r="C19">
         <v>7.802583715828346</v>
@@ -41570,7 +41570,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41581,7 +41581,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5643307211853195</v>
+        <v>-0.5643307211853195</v>
       </c>
       <c r="C20">
         <v>8.754764969822503</v>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -41615,7 +41615,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>1.124197263898957</v>
+        <v>-1.124197263898957</v>
       </c>
       <c r="C21">
         <v>8.257652319000764</v>
@@ -41638,7 +41638,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -41649,7 +41649,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>-0.8354606547157921</v>
+        <v>0.8354606547157921</v>
       </c>
       <c r="C22">
         <v>5.791678878964739</v>
@@ -41672,7 +41672,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41683,7 +41683,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>-0.4238854405106078</v>
+        <v>0.4238854405106078</v>
       </c>
       <c r="C23">
         <v>11.01578165043077</v>
@@ -41706,7 +41706,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41717,7 +41717,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>-0.6595464266150772</v>
+        <v>0.6595464266150772</v>
       </c>
       <c r="C24">
         <v>7.019253818907041</v>
@@ -41740,7 +41740,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41751,7 +41751,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>-0.4556807131400777</v>
+        <v>0.4556807131400777</v>
       </c>
       <c r="C25">
         <v>9.712719999005245</v>
@@ -41774,7 +41774,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41785,7 +41785,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>-0.6363557446859112</v>
+        <v>0.6363557446859112</v>
       </c>
       <c r="C26">
         <v>6.540336595026352</v>
@@ -41808,7 +41808,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41819,7 +41819,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>-0.8569547887808966</v>
+        <v>0.8569547887808966</v>
       </c>
       <c r="C27">
         <v>6.411972654477891</v>
@@ -41842,7 +41842,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41853,7 +41853,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>-0.5672638255297251</v>
+        <v>0.5672638255297251</v>
       </c>
       <c r="C28">
         <v>8.550666409605421</v>
@@ -41876,7 +41876,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41887,7 +41887,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>-1.279005526435029</v>
+        <v>1.279005526435029</v>
       </c>
       <c r="C29">
         <v>4.669009654767154</v>
@@ -41910,7 +41910,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41921,7 +41921,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.7443550173900846</v>
+        <v>-0.7443550173900846</v>
       </c>
       <c r="C30">
         <v>5.452034778298312</v>
@@ -41944,7 +41944,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -41955,7 +41955,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.6398308718006804</v>
+        <v>0.6398308718006804</v>
       </c>
       <c r="C31">
         <v>6.933205904953596</v>
@@ -41978,7 +41978,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -41989,7 +41989,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.23928699322301</v>
+        <v>-1.23928699322301</v>
       </c>
       <c r="C32">
         <v>7.497189253919208</v>
@@ -42012,7 +42012,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42023,7 +42023,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>-0.5650360064231421</v>
+        <v>0.5650360064231421</v>
       </c>
       <c r="C33">
         <v>7.487832078568628</v>
@@ -42046,7 +42046,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42057,7 +42057,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.044963646371041</v>
+        <v>-1.044963646371041</v>
       </c>
       <c r="C34">
         <v>5.373553211800721</v>
@@ -42080,7 +42080,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42091,7 +42091,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.9319799304005194</v>
+        <v>-0.9319799304005194</v>
       </c>
       <c r="C35">
         <v>4.720620249000775</v>
@@ -42114,7 +42114,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42125,7 +42125,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.8308187652823893</v>
+        <v>-0.8308187652823893</v>
       </c>
       <c r="C36">
         <v>8.533940123898534</v>
@@ -42148,7 +42148,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42159,7 +42159,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.5114814365777622</v>
+        <v>-0.5114814365777622</v>
       </c>
       <c r="C37">
         <v>8.56306683994757</v>
@@ -42182,7 +42182,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42193,7 +42193,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.5860449230875178</v>
+        <v>-0.5860449230875178</v>
       </c>
       <c r="C38">
         <v>7.661936411682976</v>
@@ -42216,7 +42216,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42227,7 +42227,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>-0.610904769796524</v>
+        <v>0.610904769796524</v>
       </c>
       <c r="C39">
         <v>7.239885021611824</v>
@@ -42245,7 +42245,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42256,7 +42256,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>-0.7006318641616707</v>
+        <v>0.7006318641616707</v>
       </c>
       <c r="C40">
         <v>8.102702259790057</v>
@@ -42279,7 +42279,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42290,7 +42290,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>-0.8836475693447694</v>
+        <v>0.8836475693447694</v>
       </c>
       <c r="C41">
         <v>6.671814271561179</v>
@@ -42313,7 +42313,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42324,7 +42324,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>2.199492380777012</v>
+        <v>-2.199492380777012</v>
       </c>
       <c r="C42">
         <v>2.439997880736962</v>
@@ -42347,7 +42347,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42358,7 +42358,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.6681017316293421</v>
+        <v>-0.6681017316293421</v>
       </c>
       <c r="C43">
         <v>7.018857786753935</v>
@@ -42381,7 +42381,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42392,7 +42392,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>-0.836917187612598</v>
+        <v>0.836917187612598</v>
       </c>
       <c r="C44">
         <v>6.70877982402274</v>
@@ -42415,7 +42415,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42426,7 +42426,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>1.006035542568402</v>
+        <v>-1.006035542568402</v>
       </c>
       <c r="C45">
         <v>4.50385547470284</v>
@@ -42444,7 +42444,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42455,7 +42455,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>-0.583373540343862</v>
+        <v>0.583373540343862</v>
       </c>
       <c r="C46">
         <v>7.306582864322428</v>
@@ -42478,7 +42478,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42489,7 +42489,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.9427388258382576</v>
+        <v>-0.9427388258382576</v>
       </c>
       <c r="C47">
         <v>5.139840428208568</v>
@@ -42512,7 +42512,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42523,7 +42523,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>-0.8308656505242178</v>
+        <v>0.8308656505242178</v>
       </c>
       <c r="C48">
         <v>6.346016811987545</v>
@@ -42546,7 +42546,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42557,7 +42557,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.7870267312774528</v>
+        <v>-0.7870267312774528</v>
       </c>
       <c r="C49">
         <v>5.602410550736693</v>
@@ -42580,7 +42580,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42591,7 +42591,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>-0.8650365294434179</v>
+        <v>0.8650365294434179</v>
       </c>
       <c r="C50">
         <v>4.943055803004841</v>
@@ -42614,7 +42614,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42625,7 +42625,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.8761581129941227</v>
+        <v>-0.8761581129941227</v>
       </c>
       <c r="C51">
         <v>4.659802685592926</v>
@@ -42648,7 +42648,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42659,7 +42659,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>-0.994149747743263</v>
+        <v>0.994149747743263</v>
       </c>
       <c r="C52">
         <v>4.614273662255772</v>
@@ -42682,7 +42682,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42693,7 +42693,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>-0.8101428271656275</v>
+        <v>0.8101428271656275</v>
       </c>
       <c r="C53">
         <v>5.904883498238044</v>
@@ -42716,7 +42716,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.8083876837967399</v>
+        <v>-0.8083876837967399</v>
       </c>
       <c r="C54">
         <v>8.121902812230495</v>
@@ -42750,7 +42750,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42761,7 +42761,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>-0.6098983371126998</v>
+        <v>0.6098983371126998</v>
       </c>
       <c r="C55">
         <v>9.613005779459575</v>
@@ -42784,7 +42784,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42795,7 +42795,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.7721876676251362</v>
+        <v>-0.7721876676251362</v>
       </c>
       <c r="C56">
         <v>6.470146715575008</v>
@@ -42818,7 +42818,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42829,7 +42829,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.7654384966449275</v>
+        <v>-0.7654384966449275</v>
       </c>
       <c r="C57">
         <v>5.4248838090713</v>
@@ -42852,7 +42852,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42863,7 +42863,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>-0.5607098162220474</v>
+        <v>0.5607098162220474</v>
       </c>
       <c r="C58">
         <v>6.661592755461068</v>
@@ -42886,7 +42886,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42897,7 +42897,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>2.149214220732476</v>
+        <v>-2.149214220732476</v>
       </c>
       <c r="C59">
         <v>4.745133445206706</v>
@@ -42920,7 +42920,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>-0.6035956897026908</v>
+        <v>0.6035956897026908</v>
       </c>
       <c r="C60">
         <v>8.167558764179651</v>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -42965,7 +42965,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.6279907744662339</v>
+        <v>-0.6279907744662339</v>
       </c>
       <c r="C61">
         <v>5.830332271825129</v>
@@ -42988,7 +42988,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -42999,7 +42999,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.4438503235629128</v>
+        <v>-0.4438503235629128</v>
       </c>
       <c r="C62">
         <v>9.052104627130749</v>
@@ -43022,7 +43022,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43033,7 +43033,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.5295076693312195</v>
+        <v>-0.5295076693312195</v>
       </c>
       <c r="C63">
         <v>7.039695586997266</v>
@@ -43056,7 +43056,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43067,7 +43067,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.6540104178593422</v>
+        <v>-0.6540104178593422</v>
       </c>
       <c r="C64">
         <v>6.493004962243255</v>
@@ -43090,7 +43090,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>-0.9509262325771797</v>
+        <v>0.9509262325771797</v>
       </c>
       <c r="C65">
         <v>4.532404438205759</v>
@@ -43124,7 +43124,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43135,7 +43135,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>-0.606428285302016</v>
+        <v>0.606428285302016</v>
       </c>
       <c r="C66">
         <v>9.140145462276649</v>
@@ -43158,7 +43158,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43169,7 +43169,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>1.464284699353489</v>
+        <v>-1.464284699353489</v>
       </c>
       <c r="C67">
         <v>3.559750890195545</v>
@@ -43187,7 +43187,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43198,7 +43198,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>-0.859986875063548</v>
+        <v>0.859986875063548</v>
       </c>
       <c r="C68">
         <v>5.945150395280082</v>
@@ -43216,7 +43216,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43227,7 +43227,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>-0.5118084295297756</v>
+        <v>0.5118084295297756</v>
       </c>
       <c r="C69">
         <v>7.939738650734776</v>
@@ -43250,7 +43250,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43261,7 +43261,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.7730631410807298</v>
+        <v>-0.7730631410807298</v>
       </c>
       <c r="C70">
         <v>6.610865864393095</v>
@@ -43284,7 +43284,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43295,7 +43295,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>2.712182065759687</v>
+        <v>-2.712182065759687</v>
       </c>
       <c r="C71">
         <v>1.193436431664202</v>
@@ -43318,7 +43318,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43329,7 +43329,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.7461692874662038</v>
+        <v>-0.7461692874662038</v>
       </c>
       <c r="C72">
         <v>5.904812885877833</v>
@@ -43352,7 +43352,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.5648275795682132</v>
+        <v>-0.5648275795682132</v>
       </c>
       <c r="C73">
         <v>9.848565066722891</v>
@@ -43386,7 +43386,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43397,7 +43397,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>-0.5846304410870982</v>
+        <v>0.5846304410870982</v>
       </c>
       <c r="C74">
         <v>6.526287912394646</v>
@@ -43420,7 +43420,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43431,7 +43431,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>1.497941049917653</v>
+        <v>-1.497941049917653</v>
       </c>
       <c r="C75">
         <v>3.470969477416175</v>
@@ -43454,7 +43454,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43465,7 +43465,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.9100486740462634</v>
+        <v>-0.9100486740462634</v>
       </c>
       <c r="C76">
         <v>4.534508117429827</v>
@@ -43488,7 +43488,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43499,7 +43499,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>-0.5312048633252218</v>
+        <v>0.5312048633252218</v>
       </c>
       <c r="C77">
         <v>7.255303809975232</v>
@@ -43522,7 +43522,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>-0.6349505666448954</v>
+        <v>0.6349505666448954</v>
       </c>
       <c r="C78">
         <v>7.086607660462998</v>
@@ -43556,7 +43556,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43567,7 +43567,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>1.992689022815808</v>
+        <v>-1.992689022815808</v>
       </c>
       <c r="C79">
         <v>2.948835168216799</v>
@@ -43590,7 +43590,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43601,7 +43601,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>1.363785164490433</v>
+        <v>-1.363785164490433</v>
       </c>
       <c r="C80">
         <v>3.855390582936642</v>
@@ -43624,7 +43624,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43635,7 +43635,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>-0.6910249982070642</v>
+        <v>0.6910249982070642</v>
       </c>
       <c r="C81">
         <v>6.037627013652368</v>
@@ -43658,7 +43658,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43669,7 +43669,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>-0.5401827850004004</v>
+        <v>0.5401827850004004</v>
       </c>
       <c r="C82">
         <v>8.9058152691918</v>
@@ -43692,7 +43692,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43703,7 +43703,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>-0.6138677594832256</v>
+        <v>0.6138677594832256</v>
       </c>
       <c r="C83">
         <v>6.79620141497719</v>
@@ -43726,7 +43726,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43737,7 +43737,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>2.135531716740561</v>
+        <v>-2.135531716740561</v>
       </c>
       <c r="C84">
         <v>2.799574310279795</v>
@@ -43760,7 +43760,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43771,7 +43771,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.5296988618301874</v>
+        <v>-0.5296988618301874</v>
       </c>
       <c r="C85">
         <v>10.14923796574277</v>
@@ -43794,7 +43794,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43805,7 +43805,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>-1.14060682027001</v>
+        <v>1.14060682027001</v>
       </c>
       <c r="C86">
         <v>5.08711765363544</v>
@@ -43828,7 +43828,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43839,7 +43839,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>-0.5587662765087442</v>
+        <v>0.5587662765087442</v>
       </c>
       <c r="C87">
         <v>6.582822247634148</v>
@@ -43862,7 +43862,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43873,7 +43873,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>-0.4471062429244341</v>
+        <v>0.4471062429244341</v>
       </c>
       <c r="C88">
         <v>7.598910358214778</v>
@@ -43896,7 +43896,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43907,7 +43907,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>-0.5405780149697694</v>
+        <v>0.5405780149697694</v>
       </c>
       <c r="C89">
         <v>8.208336813782976</v>
@@ -43930,7 +43930,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -43941,7 +43941,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.9833337000758053</v>
+        <v>-0.9833337000758053</v>
       </c>
       <c r="C90">
         <v>6.891075034904441</v>
@@ -43964,7 +43964,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -43975,7 +43975,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.7461851156303565</v>
+        <v>-0.7461851156303565</v>
       </c>
       <c r="C91">
         <v>4.846491298085402</v>
@@ -43998,7 +43998,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44009,7 +44009,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>-1.009491545253796</v>
+        <v>1.009491545253796</v>
       </c>
       <c r="C92">
         <v>5.161421716466488</v>
@@ -44032,7 +44032,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44043,7 +44043,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>-0.6904001210323329</v>
+        <v>0.6904001210323329</v>
       </c>
       <c r="C93">
         <v>6.384508192226766</v>
@@ -44066,7 +44066,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44077,7 +44077,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.8246213825586839</v>
+        <v>-0.8246213825586839</v>
       </c>
       <c r="C94">
         <v>7.606857199321591</v>
@@ -44100,7 +44100,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44111,7 +44111,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>-0.6219737570962538</v>
+        <v>0.6219737570962538</v>
       </c>
       <c r="C95">
         <v>7.312755594799732</v>
@@ -44134,7 +44134,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44145,7 +44145,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>1.480176173790749</v>
+        <v>-1.480176173790749</v>
       </c>
       <c r="C96">
         <v>4.152599028514109</v>
@@ -44168,7 +44168,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44179,7 +44179,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>-0.7957927751312042</v>
+        <v>0.7957927751312042</v>
       </c>
       <c r="C97">
         <v>5.040849794549581</v>
@@ -44202,7 +44202,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44213,7 +44213,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>1.333132147389704</v>
+        <v>-1.333132147389704</v>
       </c>
       <c r="C98">
         <v>3.616883722179618</v>
@@ -44236,7 +44236,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>0.9663974474513886</v>
+        <v>-0.9663974474513886</v>
       </c>
       <c r="C99">
         <v>4.376090364540527</v>
@@ -44270,7 +44270,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44281,7 +44281,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>1.877724671797123</v>
+        <v>-1.877724671797123</v>
       </c>
       <c r="C100">
         <v>2.049507814113925</v>
@@ -44304,7 +44304,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44315,7 +44315,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>0.5879305830741082</v>
+        <v>-0.5879305830741082</v>
       </c>
       <c r="C101">
         <v>7.163599997279152</v>
@@ -44338,7 +44338,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44349,7 +44349,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>1.16666010654395</v>
+        <v>-1.16666010654395</v>
       </c>
       <c r="C102">
         <v>4.039408685546418</v>
@@ -44372,7 +44372,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44383,7 +44383,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>-0.4215465460803536</v>
+        <v>0.4215465460803536</v>
       </c>
       <c r="C103">
         <v>9.953303123229228</v>
@@ -44406,7 +44406,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44417,7 +44417,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>0.5304948960719793</v>
+        <v>-0.5304948960719793</v>
       </c>
       <c r="C104">
         <v>6.85934208445679</v>
@@ -44440,7 +44440,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44451,7 +44451,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>-0.4449726832989889</v>
+        <v>0.4449726832989889</v>
       </c>
       <c r="C105">
         <v>10.54277300270773</v>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44485,7 +44485,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>0.9917019749062508</v>
+        <v>-0.9917019749062508</v>
       </c>
       <c r="C106">
         <v>4.329025995159066</v>
@@ -44508,7 +44508,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44519,7 +44519,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>-1.201413006270831</v>
+        <v>1.201413006270831</v>
       </c>
       <c r="C107">
         <v>5.9012592549421</v>
@@ -44542,7 +44542,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44553,7 +44553,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>-1.906594278494607</v>
+        <v>1.906594278494607</v>
       </c>
       <c r="C108">
         <v>3.84976322911392</v>
@@ -44576,7 +44576,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>0.995068344883169</v>
+        <v>-0.995068344883169</v>
       </c>
       <c r="C109">
         <v>4.405990203210838</v>
@@ -44610,7 +44610,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44621,7 +44621,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>-0.673635559397689</v>
+        <v>0.673635559397689</v>
       </c>
       <c r="C110">
         <v>5.141328647486122</v>
@@ -44644,7 +44644,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44655,7 +44655,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>-0.8333637835001086</v>
+        <v>0.8333637835001086</v>
       </c>
       <c r="C111">
         <v>7.098183734424286</v>
@@ -44678,7 +44678,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44689,7 +44689,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>0.4004134295278003</v>
+        <v>-0.4004134295278003</v>
       </c>
       <c r="C112">
         <v>8.268323797154112</v>
@@ -44712,7 +44712,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44723,7 +44723,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>-0.7091814648351065</v>
+        <v>0.7091814648351065</v>
       </c>
       <c r="C113">
         <v>7.45775063208042</v>
@@ -44746,7 +44746,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>0.515667584163217</v>
+        <v>-0.515667584163217</v>
       </c>
       <c r="C114">
         <v>6.476646080105343</v>
@@ -44780,7 +44780,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44791,7 +44791,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>0.4994880460401188</v>
+        <v>-0.4994880460401188</v>
       </c>
       <c r="C115">
         <v>6.559042299383469</v>
@@ -44814,7 +44814,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44825,7 +44825,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>-0.5318430885963297</v>
+        <v>0.5318430885963297</v>
       </c>
       <c r="C116">
         <v>8.170095417904394</v>
@@ -44848,7 +44848,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -44859,7 +44859,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>0.855195697111867</v>
+        <v>-0.855195697111867</v>
       </c>
       <c r="C117">
         <v>6.969876421958822</v>
@@ -44882,7 +44882,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44893,7 +44893,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>1.928103141190218</v>
+        <v>-1.928103141190218</v>
       </c>
       <c r="C118">
         <v>2.750411959555803</v>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44927,7 +44927,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>1.477073179391961</v>
+        <v>-1.477073179391961</v>
       </c>
       <c r="C119">
         <v>2.841874492108318</v>
@@ -44950,7 +44950,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44961,7 +44961,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>2.49695744828468</v>
+        <v>-2.49695744828468</v>
       </c>
       <c r="C120">
         <v>0.6184038854470346</v>
@@ -44984,7 +44984,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -44995,7 +44995,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>2.031093151359896</v>
+        <v>-2.031093151359896</v>
       </c>
       <c r="C121">
         <v>2.169437775315594</v>
@@ -45018,7 +45018,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -45029,7 +45029,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>-0.4390135886408011</v>
+        <v>0.4390135886408011</v>
       </c>
       <c r="C122">
         <v>8.150932003965179</v>
@@ -45052,7 +45052,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -45063,7 +45063,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>-0.5310195756069467</v>
+        <v>0.5310195756069467</v>
       </c>
       <c r="C123">
         <v>7.450995254963865</v>
@@ -45086,7 +45086,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
     </row>
@@ -45097,7 +45097,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>2.194167576026506</v>
+        <v>-2.194167576026506</v>
       </c>
       <c r="C124">
         <v>0.7591780830491774</v>
@@ -45120,7 +45120,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
@@ -45131,7 +45131,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>2.212874052016792</v>
+        <v>-2.212874052016792</v>
       </c>
       <c r="C125">
         <v>0.5913969471571729</v>
@@ -45154,7 +45154,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
